--- a/data/trans_camb/P68-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P68-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P68-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P68-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,75</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,12</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 34,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,75; 9,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,76; 18,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,06; 32,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,21; 14,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,26; 17,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 27,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,71; 4,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,11; 13,42</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,9%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,76; 202,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,29; 56,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,77; 102,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,11; 242,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,86; 114,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,49; 130,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,81; 145,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,18; 24,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,76; 70,71</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 13,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,4; 11,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,7; 7,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,98; 10,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,83; 6,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,67; 8,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 9,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,79; 6,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 5,78</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,56%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 77,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,77; 62,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,77; 46,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,3; 69,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,67; 47,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,75; 59,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,9; 53,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,74; 41,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,61; 35,0</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,1</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,88; 2,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; 3,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,06; -1,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,49; 11,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,72; 7,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 11,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,82; 3,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,54; 2,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,88; 1,03</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,75%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,35; 9,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,74; 14,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,13; -8,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,83; 66,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,27; 46,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,89; 74,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,16; 14,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,6; 11,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,2; 4,4</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,72; 5,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,61; 9,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,51; -4,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,35; 11,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,98; 9,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 12,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,22; 4,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,78; 7,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,77; 1,37</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,66%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,56; 23,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,39; 41,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,75; -17,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,9; 66,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,45; 58,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,66; 72,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,61; 19,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,07; 31,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,82; 6,78</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,71; -0,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,09; 2,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,3; 1,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,73; 4,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,0; 4,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,36; 7,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,85; -0,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,0; 1,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,11; 3,08</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,3%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,33%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,56%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,21%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,55%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,72%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,28; -1,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,75; 12,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,8; 8,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,24; 23,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,06; 19,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,91; 40,28</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,11; 0,93</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,56; 6,23</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,43; 14,83</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,63; 1,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,41; 2,8</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,59; -2,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 5,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,28; 2,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 6,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 1,71</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 1,91</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,38; 0,21</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,34%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,91%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,68%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,79%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,71; 5,1</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,86; 11,97</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,52; -9,5</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,42; 26,19</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,15; 15,28</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 32,58</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,67; 7,55</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,97; 8,49</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,62; 0,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P68-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P68-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,8</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,23</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,75</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,12</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,43</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 34,32</t>
+          <t>1,55; 14,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 9,68</t>
+          <t>-5,57; 8,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 18,54</t>
+          <t>-5,9; 6,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 32,01</t>
+          <t>-8,28; 9,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,21; 14,34</t>
+          <t>-11,56; 5,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 17,48</t>
+          <t>-7,8; 8,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 27,18</t>
+          <t>-0,41; 11,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 4,78</t>
+          <t>-5,61; 5,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 13,42</t>
+          <t>-4,91; 5,2</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>58,54%</t>
+          <t>37,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-30,51%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,04%</t>
+          <t>-13,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,59%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-26,76%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>2,07%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 202,34</t>
+          <t>5,73; 80,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-72,29; 56,89</t>
+          <t>-22,37; 49,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,77; 102,34</t>
+          <t>-23,87; 37,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,11; 242,4</t>
+          <t>-32,78; 57,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,86; 114,99</t>
+          <t>-45,94; 32,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,49; 130,77</t>
+          <t>-30,16; 54,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 145,77</t>
+          <t>-1,59; 63,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,18; 24,71</t>
+          <t>-24,49; 30,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,76; 70,71</t>
+          <t>-20,29; 27,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-12,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-6,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 13,32</t>
+          <t>-8,88; 2,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 11,06</t>
+          <t>-8,42; 3,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 7,9</t>
+          <t>-24,71; -3,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 10,35</t>
+          <t>-3,49; 11,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 6,96</t>
+          <t>-6,72; 7,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 8,66</t>
+          <t>-1,15; 11,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 9,37</t>
+          <t>-5,82; 3,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 6,94</t>
+          <t>-6,54; 2,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 5,78</t>
+          <t>-15,94; -0,48</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>-13,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>-10,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>-47,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,76%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>-7,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>-27,49%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 77,82</t>
+          <t>-31,35; 9,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 62,44</t>
+          <t>-28,74; 14,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 46,06</t>
+          <t>-78,11; -16,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 69,51</t>
+          <t>-14,83; 66,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,67; 47,94</t>
+          <t>-28,27; 46,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 59,9</t>
+          <t>-5,35; 73,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 53,54</t>
+          <t>-22,16; 14,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 41,63</t>
+          <t>-24,6; 11,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 35,0</t>
+          <t>-62,92; -2,44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,92</t>
+          <t>-10,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-1,9</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 2,15</t>
+          <t>-8,72; 5,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 3,46</t>
+          <t>-3,61; 9,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,06; -1,94</t>
+          <t>-16,66; -4,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 11,05</t>
+          <t>-5,35; 11,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 7,61</t>
+          <t>-5,98; 9,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 11,99</t>
+          <t>-2,01; 31,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 3,31</t>
+          <t>-6,22; 4,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 2,69</t>
+          <t>-2,78; 7,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 1,03</t>
+          <t>-8,09; 11,05</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-13,12%</t>
+          <t>-8,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,2%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-29,95%</t>
+          <t>-39,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>40,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-4,78%</t>
+          <t>-2,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-7,97%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-12,75%</t>
+          <t>-7,52%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,35; 9,16</t>
+          <t>-29,56; 23,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 14,72</t>
+          <t>-12,39; 41,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,13; -8,2</t>
+          <t>-56,77; -18,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 66,05</t>
+          <t>-20,9; 66,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 46,68</t>
+          <t>-23,45; 58,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 74,5</t>
+          <t>-9,15; 190,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,16; 14,73</t>
+          <t>-22,61; 19,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 11,98</t>
+          <t>-10,07; 31,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 4,4</t>
+          <t>-30,41; 52,07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-5,51</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-3,21</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-2,34</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-3,88</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>-2,31</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,41</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-10,32</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-4,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 5,76</t>
+          <t>-10,71; -0,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 9,72</t>
+          <t>-8,09; 2,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,51; -4,29</t>
+          <t>-8,73; 2,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 11,57</t>
+          <t>-7,73; 4,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 9,92</t>
+          <t>-9,0; 4,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 12,95</t>
+          <t>-10,94; 5,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 4,54</t>
+          <t>-7,85; -0,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 7,29</t>
+          <t>-7,0; 1,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 1,37</t>
+          <t>-8,28; 1,9</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,55%</t>
+          <t>-22,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>-10,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-38,25%</t>
+          <t>-13,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>-10,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>-4,76%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,08%</t>
+          <t>-16,21%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>-10,55%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-17,66%</t>
+          <t>-9,66%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 23,02</t>
+          <t>-39,28; -1,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 41,09</t>
+          <t>-29,75; 12,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,75; -17,57</t>
+          <t>-32,45; 10,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 66,6</t>
+          <t>-30,24; 23,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 58,51</t>
+          <t>-35,06; 19,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 72,13</t>
+          <t>-43,11; 27,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 19,76</t>
+          <t>-30,11; 0,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 31,54</t>
+          <t>-27,56; 6,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 6,78</t>
+          <t>-31,79; 8,57</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-3,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -0,39</t>
+          <t>-4,63; 1,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 2,81</t>
+          <t>-3,41; 2,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 1,96</t>
+          <t>-13,15; -3,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 4,68</t>
+          <t>-2,41; 5,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 4,15</t>
+          <t>-4,28; 2,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 7,78</t>
+          <t>-1,23; 8,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -0,03</t>
+          <t>-3,19; 1,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 1,4</t>
+          <t>-2,93; 1,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 3,08</t>
+          <t>-7,74; 0,02</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-22,3%</t>
+          <t>-6,34%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-10,33%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-14,56%</t>
+          <t>-29,88%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-6,95%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-10,26%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-16,21%</t>
+          <t>-2,68%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-10,55%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-4,72%</t>
+          <t>-13,76%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,28; -1,59</t>
+          <t>-17,71; 5,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 12,28</t>
+          <t>-12,86; 11,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 8,7</t>
+          <t>-51,58; -15,1</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 23,14</t>
+          <t>-10,42; 26,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,06; 19,48</t>
+          <t>-18,15; 15,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 40,28</t>
+          <t>-5,43; 43,82</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-30,11; 0,93</t>
+          <t>-12,67; 7,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 6,23</t>
+          <t>-11,97; 8,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 14,83</t>
+          <t>-32,84; -0,15</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,58</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-5,47</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-2,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 1,19</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-3,41; 2,8</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-8,59; -2,31</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-2,41; 5,15</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 2,9</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 6,36</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-3,19; 1,71</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-2,93; 1,91</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-4,38; 0,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-6,34%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-0,51%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-21,91%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>5,57%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-2,75%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>12,93%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-2,68%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-2,39%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-8,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-17,71; 5,1</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-12,86; 11,97</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-32,52; -9,5</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-10,42; 26,19</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-18,15; 15,28</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 32,58</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-12,67; 7,55</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-11,97; 8,49</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-17,62; 0,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P68-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P68-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 14,86</t>
+          <t>0,41; 14,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 8,82</t>
+          <t>-4,67; 8,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 6,58</t>
+          <t>-6,15; 6,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 9,64</t>
+          <t>-8,49; 10,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 5,25</t>
+          <t>-11,11; 6,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 8,15</t>
+          <t>-6,79; 7,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 11,14</t>
+          <t>0,04; 10,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 5,34</t>
+          <t>-5,37; 5,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 5,2</t>
+          <t>-4,51; 5,27</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 80,09</t>
+          <t>4,33; 81,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 49,44</t>
+          <t>-19,38; 50,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,87; 37,37</t>
+          <t>-25,21; 37,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 57,28</t>
+          <t>-34,81; 60,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,94; 32,07</t>
+          <t>-45,45; 36,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 54,06</t>
+          <t>-27,27; 46,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 63,04</t>
+          <t>0,16; 59,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 30,1</t>
+          <t>-23,6; 30,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 27,75</t>
+          <t>-19,23; 28,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 2,15</t>
+          <t>-8,93; 3,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 3,46</t>
+          <t>-8,45; 3,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,71; -3,99</t>
+          <t>-22,62; -4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 11,05</t>
+          <t>-3,26; 11,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 7,61</t>
+          <t>-6,39; 7,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 11,84</t>
+          <t>-1,22; 11,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 3,31</t>
+          <t>-5,75; 3,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 2,69</t>
+          <t>-6,6; 2,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,94; -0,48</t>
+          <t>-16,83; -0,85</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,35; 9,16</t>
+          <t>-31,66; 14,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 14,72</t>
+          <t>-29,82; 17,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-78,11; -16,09</t>
+          <t>-80,2; -17,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 66,05</t>
+          <t>-13,61; 75,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 46,68</t>
+          <t>-26,81; 47,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 73,48</t>
+          <t>-5,39; 73,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,16; 14,73</t>
+          <t>-21,23; 14,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 11,98</t>
+          <t>-24,61; 11,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,92; -2,44</t>
+          <t>-67,72; -4,6</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 5,76</t>
+          <t>-9,17; 4,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 9,72</t>
+          <t>-4,0; 10,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,66; -4,36</t>
+          <t>-16,49; -3,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 11,57</t>
+          <t>-4,8; 11,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 9,92</t>
+          <t>-5,3; 9,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 31,34</t>
+          <t>-1,61; 29,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 4,54</t>
+          <t>-5,5; 4,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 7,29</t>
+          <t>-2,83; 6,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 11,05</t>
+          <t>-8,26; 11,51</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 23,02</t>
+          <t>-30,64; 20,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 41,09</t>
+          <t>-12,63; 44,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,77; -18,77</t>
+          <t>-55,09; -16,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 66,6</t>
+          <t>-19,63; 66,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 58,51</t>
+          <t>-21,67; 53,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 190,37</t>
+          <t>-7,98; 160,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 19,76</t>
+          <t>-20,66; 21,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 31,54</t>
+          <t>-10,12; 30,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 52,07</t>
+          <t>-31,53; 49,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -0,39</t>
+          <t>-10,85; 0,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 2,81</t>
+          <t>-8,14; 2,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 2,4</t>
+          <t>-8,54; 2,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 4,68</t>
+          <t>-8,3; 4,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 4,15</t>
+          <t>-8,47; 4,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 5,65</t>
+          <t>-10,68; 5,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -0,03</t>
+          <t>-7,87; -0,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 1,4</t>
+          <t>-6,31; 1,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 1,9</t>
+          <t>-7,73; 2,14</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,28; -1,59</t>
+          <t>-40,79; 1,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 12,28</t>
+          <t>-29,52; 13,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 10,98</t>
+          <t>-31,52; 11,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 23,14</t>
+          <t>-32,27; 21,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,06; 19,48</t>
+          <t>-32,91; 23,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,11; 27,47</t>
+          <t>-41,64; 25,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-30,11; 0,93</t>
+          <t>-30,54; -0,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 6,23</t>
+          <t>-24,96; 8,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 8,57</t>
+          <t>-30,55; 9,07</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 1,19</t>
+          <t>-4,4; 1,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,8</t>
+          <t>-3,24; 2,84</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -3,58</t>
+          <t>-13,94; -3,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,15</t>
+          <t>-2,87; 4,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 2,9</t>
+          <t>-4,12; 3,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,76</t>
+          <t>-1,77; 9,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,71</t>
+          <t>-2,79; 1,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,91</t>
+          <t>-2,75; 1,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 0,02</t>
+          <t>-7,87; -0,26</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 5,1</t>
+          <t>-16,62; 7,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 11,97</t>
+          <t>-12,35; 11,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-51,58; -15,1</t>
+          <t>-53,73; -14,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 26,19</t>
+          <t>-12,53; 24,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 15,28</t>
+          <t>-17,93; 16,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 43,82</t>
+          <t>-7,28; 44,25</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 7,55</t>
+          <t>-11,33; 8,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 8,49</t>
+          <t>-11,03; 8,37</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-32,84; -0,15</t>
+          <t>-32,4; -1,14</t>
         </is>
       </c>
     </row>
